--- a/biology/Botanique/Jardins_des_Champs-Élysées/Jardins_des_Champs-Élysées.xlsx
+++ b/biology/Botanique/Jardins_des_Champs-Élysées/Jardins_des_Champs-Élysées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+          <t>Jardins_des_Champs-Élysées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins des Champs-Élysées sont un ensemble d'espaces verts du 8e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+          <t>Jardins_des_Champs-Élysées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins des Champs-Élysées sont délimités par :
 le cours la Reine au sud ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+          <t>Jardins_des_Champs-Élysées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site occupé par les jardins, à l'origine marécageux, commence à être aménagé à partir du XVIIe siècle. Il est acheté en 1828 par la ville de Paris. Les jardins sont conçus en 1859 par Adolphe Alphand sur le modèle des jardins à l'anglaise.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+          <t>Jardins_des_Champs-Élysées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +599,13 @@
           <t>Les carrés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces jardins, larges de 300 à 400 mètres, sont divisés en espaces rectangulaires appelés « carrés ».
 Sur le côté nord, d'est en ouest
-Jardin des Ambassadeurs - Line Renaud : anciennement connu sous le nom de « Carré des Ambassadeurs », il tirait son nom des hôtels édifiés par l'architecte Ange-Jacques Gabriel sur la place de la Concorde voisine, qui furent un temps destinés à servir de logement à des ambassadeurs étrangers. On y trouve notamment l'Espace Cardin, anciennement théâtre des Ambassadeurs, réalisation de Jacques Hittorff. Depuis juin 2023 et un vote du Conseil de Paris, il rend hommage à l'artiste Line Renaud[1].
+Jardin des Ambassadeurs - Line Renaud : anciennement connu sous le nom de « Carré des Ambassadeurs », il tirait son nom des hôtels édifiés par l'architecte Ange-Jacques Gabriel sur la place de la Concorde voisine, qui furent un temps destinés à servir de logement à des ambassadeurs étrangers. On y trouve notamment l'Espace Cardin, anciennement théâtre des Ambassadeurs, réalisation de Jacques Hittorff. Depuis juin 2023 et un vote du Conseil de Paris, il rend hommage à l'artiste Line Renaud.
 	Carré des Ambassadeurs
 			Espace Cardin et la fontaine des Ambassadeurs (ou fontaine de Vénus).
 			Carré des Ambassadeurs.
@@ -597,7 +615,7 @@
 			Fontaine de la Grille du Coq devant le palais de l'Élysée.
 			Pavillon Elysée.
 			Pavillon Gabriel et la fontaine des Ambassadeurs.
-Carré Marigny (au débouché de la rue du Cirque) : on y trouve le théâtre Marigny, le restaurant Laurent, le marché aux timbres et un théâtre de marionnettes Guignol.Par arrêté municipal des 8, 9, 10 et 11 juillet 2019, l'allée des jardins des Champs Élysées traversant le carré Marigny d'est en ouest, du théâtre jusqu’à l'avenue Matignon, prend le nom de « allée Jeannine-Worms »[2]
+Carré Marigny (au débouché de la rue du Cirque) : on y trouve le théâtre Marigny, le restaurant Laurent, le marché aux timbres et un théâtre de marionnettes Guignol.Par arrêté municipal des 8, 9, 10 et 11 juillet 2019, l'allée des jardins des Champs Élysées traversant le carré Marigny d'est en ouest, du théâtre jusqu’à l'avenue Matignon, prend le nom de « allée Jeannine-Worms »
 	Carré Marigny
 			Théâtre Marigny.
 			Fontaine du Cirque.
@@ -605,7 +623,7 @@
 			Fontaine du Cirque.
 Sur le côté sud, d'est en ouest
 Carré Ledoyen ou du Géorama (face au carré des Ambassadeurs) : on y trouve le restaurant Ledoyen et la fontaine de Diane.
-En 2023, le Conseil de Paris vote pour renommer le carré Ledoyen « jardin Charles-Aznavour », en hommage à l'artiste[3].
+En 2023, le Conseil de Paris vote pour renommer le carré Ledoyen « jardin Charles-Aznavour », en hommage à l'artiste.
 	Carré Ledoyen
 			Kiosque à musique.
 			Pavillon Ledoyen.
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+          <t>Jardins_des_Champs-Élysées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,12 +663,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allée du Commandant-Massoud
-L'allée du Commandant-Massoud honore le combattant afghan Ahmed Chah Massoud (1953-2001).
-Allée Marcel-Proust
-L'allée Marcel-Proust honore l'écrivain français Marcel Proust (1871-1922).
-Allée Jeannine-Worms
-L'allée Jeannine-Worms honore l'écrivaine et dramaturge française Jeaninne Worms (1923-2006).
+          <t>Allée du Commandant-Massoud</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allée du Commandant-Massoud honore le combattant afghan Ahmed Chah Massoud (1953-2001).
 </t>
         </is>
       </c>
@@ -661,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+          <t>Jardins_des_Champs-Élysées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,10 +695,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Les allées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allée Marcel-Proust</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allée Marcel-Proust honore l'écrivain français Marcel Proust (1871-1922).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardins_des_Champs-Élysées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les allées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allée Jeannine-Worms</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allée Jeannine-Worms honore l'écrivaine et dramaturge française Jeaninne Worms (1923-2006).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardins_des_Champs-Élysées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_des_Champs-%C3%89lys%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Les jardins annexes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Square Jean-Perrin situé sur le côté nord-ouest du Grand Palais.
 	Square Jean-Perrin
@@ -696,31 +791,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jardins_des_Champs-%C3%89lys%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardins_des_Champs-Élysées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardins_des_Champs-%C3%89lys%C3%A9es</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Film tourné dans les jardins</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1963 : Charade de Stanley Donen.</t>
         </is>
